--- a/xlsx_files/Race39.xlsx
+++ b/xlsx_files/Race39.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC0E03B-8995-4031-B8E0-D54C9A456D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB425F-61FA-4A69-AA03-F018601FE13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="348" windowWidth="26904" windowHeight="15732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Track Name</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>01:43.3650</t>
+  </si>
+  <si>
+    <t>0.7</t>
   </si>
 </sst>
 </file>
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -729,7 +732,7 @@
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
     <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -790,8 +793,8 @@
       <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>

--- a/xlsx_files/Race39.xlsx
+++ b/xlsx_files/Race39.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB425F-61FA-4A69-AA03-F018601FE13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF737EF-CEB0-4585-97C7-458A399964AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="348" windowWidth="26904" windowHeight="15732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="984" yWindow="4344" windowWidth="26904" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Spa-Francorchamps</t>
-  </si>
-  <si>
     <t>Ferrari Challenge 2024</t>
   </si>
   <si>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>0.7</t>
+  </si>
+  <si>
+    <t>Autodromo Internazionale Enzo e Dino Ferrari – Imola</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -729,7 +729,7 @@
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.77734375" customWidth="1"/>
@@ -759,19 +759,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -779,34 +779,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1">
         <v>45329</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -814,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -830,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -854,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -870,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -878,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -886,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -894,7 +894,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -902,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -918,7 +918,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -926,7 +926,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -934,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -942,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -950,7 +950,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -958,7 +958,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -966,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -974,7 +974,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -982,7 +982,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -990,7 +990,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -998,7 +998,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
